--- a/벡엔드 심화 테이블.xlsx
+++ b/벡엔드 심화 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_WebFullStack\Work10\Work_BookStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F593AD-0C04-4788-80C7-7832AFAC9A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F74B95B-EDA2-4B6E-9C80-09D3D59565B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10170" yWindow="2050" windowWidth="12910" windowHeight="15370" xr2:uid="{F63098B9-2605-4561-9D16-CB6A69851A4E}"/>
+    <workbookView xWindow="22780" yWindow="2400" windowWidth="12910" windowHeight="15370" xr2:uid="{F63098B9-2605-4561-9D16-CB6A69851A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>members</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,26 +262,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>format</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isbn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pages</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>동화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,6 +342,26 @@
   </si>
   <si>
     <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DF69B8-3700-4D63-A757-253826793486}">
   <dimension ref="A2:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -802,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -828,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -854,7 +858,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -880,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -906,7 +910,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -932,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -958,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -984,7 +988,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1015,7 +1019,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1</v>
@@ -1024,31 +1028,31 @@
         <v>19</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>24</v>
@@ -1084,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1093,7 +1097,7 @@
         <v>50</v>
       </c>
       <c r="M16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N16" t="s">
         <v>54</v>
@@ -1102,7 +1106,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q16">
         <v>20000</v>
@@ -1138,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1147,7 +1151,7 @@
         <v>51</v>
       </c>
       <c r="M17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N17" t="s">
         <v>54</v>
@@ -1156,7 +1160,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q17">
         <v>20000</v>
@@ -1192,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1201,7 +1205,7 @@
         <v>52</v>
       </c>
       <c r="M18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N18" t="s">
         <v>54</v>
@@ -1210,7 +1214,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q18">
         <v>20000</v>
@@ -1246,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1255,7 +1259,7 @@
         <v>53</v>
       </c>
       <c r="M19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N19" t="s">
         <v>54</v>
@@ -1264,7 +1268,7 @@
         <v>150</v>
       </c>
       <c r="P19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q19">
         <v>20000</v>
@@ -1328,7 +1332,7 @@
         <v>27</v>
       </c>
       <c r="L26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
@@ -1351,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
@@ -1374,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
@@ -1397,7 +1401,10 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="M29" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
@@ -1420,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="L30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">

--- a/벡엔드 심화 테이블.xlsx
+++ b/벡엔드 심화 테이블.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_WebFullStack\Work10\Work_BookStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F74B95B-EDA2-4B6E-9C80-09D3D59565B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6D1844-E2F4-4531-86CB-8D534A3F4279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22780" yWindow="2400" windowWidth="12910" windowHeight="15370" xr2:uid="{F63098B9-2605-4561-9D16-CB6A69851A4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>members</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -774,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DF69B8-3700-4D63-A757-253826793486}">
-  <dimension ref="A2:S48"/>
+  <dimension ref="A2:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -793,7 +793,7 @@
     <col min="18" max="18" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -801,7 +801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -827,7 +827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -853,7 +853,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -879,7 +879,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -905,7 +905,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>4</v>
       </c>
@@ -931,7 +931,7 @@
         <v>45294</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>5</v>
       </c>
@@ -957,7 +957,7 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>6</v>
       </c>
@@ -983,7 +983,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1058,13 +1058,10 @@
         <v>24</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S15" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1111,14 +1108,11 @@
       <c r="Q16">
         <v>20000</v>
       </c>
-      <c r="R16">
-        <v>2000</v>
-      </c>
-      <c r="S16" s="2">
+      <c r="R16" s="2">
         <v>43466</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1165,14 +1159,11 @@
       <c r="Q17">
         <v>20000</v>
       </c>
-      <c r="R17">
-        <v>1000</v>
-      </c>
-      <c r="S17" s="2">
+      <c r="R17" s="2">
         <v>45291</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1219,14 +1210,11 @@
       <c r="Q18">
         <v>20000</v>
       </c>
-      <c r="R18">
-        <v>5660</v>
-      </c>
-      <c r="S18" s="2">
+      <c r="R18" s="2">
         <v>45931</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1273,14 +1261,11 @@
       <c r="Q19">
         <v>20000</v>
       </c>
-      <c r="R19">
-        <v>1230</v>
-      </c>
-      <c r="S19" s="2">
+      <c r="R19" s="2">
         <v>45941</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1292,7 +1277,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1304,7 +1289,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1316,12 +1301,12 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,7 +1320,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1358,7 +1343,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1381,7 +1366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1407,7 +1392,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1430,7 +1415,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1438,7 +1423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>6</v>
       </c>

--- a/벡엔드 심화 테이블.xlsx
+++ b/벡엔드 심화 테이블.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_WebFullStack\Work10\Work_BookStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6D1844-E2F4-4531-86CB-8D534A3F4279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E21CBE7-23B2-41A5-A2D2-C1BBA839DF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22780" yWindow="2400" windowWidth="12910" windowHeight="15370" xr2:uid="{F63098B9-2605-4561-9D16-CB6A69851A4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>members</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DF69B8-3700-4D63-A757-253826793486}">
   <dimension ref="A2:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1336,6 +1336,9 @@
       <c r="H27" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="I27" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1359,6 +1362,9 @@
       <c r="H28">
         <v>1</v>
       </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
       <c r="K28">
         <v>0</v>
       </c>
@@ -1381,6 +1387,9 @@
       </c>
       <c r="H29">
         <v>2</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -1408,6 +1417,9 @@
       <c r="H30">
         <v>1</v>
       </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
       <c r="K30">
         <v>2</v>
       </c>
@@ -1422,6 +1434,18 @@
       <c r="B31">
         <v>5</v>
       </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32">
@@ -1429,6 +1453,18 @@
       </c>
       <c r="B32">
         <v>5</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">

--- a/벡엔드 심화 테이블.xlsx
+++ b/벡엔드 심화 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_WebFullStack\Work10\Work_BookStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E21CBE7-23B2-41A5-A2D2-C1BBA839DF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCBA1AF-A9A0-425B-8479-73161FE831FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22780" yWindow="2400" windowWidth="12910" windowHeight="15370" xr2:uid="{F63098B9-2605-4561-9D16-CB6A69851A4E}"/>
+    <workbookView xWindow="25540" yWindow="6800" windowWidth="12910" windowHeight="15370" xr2:uid="{F63098B9-2605-4561-9D16-CB6A69851A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
   <si>
     <t>members</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010-1234-5678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>delivery_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,14 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대표 책 제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>likes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,6 +350,66 @@
   </si>
   <si>
     <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 서초구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이모모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산시 금정구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김모모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 북구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김송아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1111-1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백설공주들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2222-2222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3333-3333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4444-4444</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +417,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +439,24 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -426,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,6 +503,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -776,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DF69B8-3700-4D63-A757-253826793486}">
   <dimension ref="A2:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G22:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -806,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -832,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -858,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -884,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -910,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -936,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -962,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -988,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1019,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1</v>
@@ -1028,37 +1100,37 @@
         <v>19</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
@@ -1076,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H16">
         <v>7</v>
@@ -1085,25 +1157,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O16">
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q16">
         <v>20000</v>
@@ -1127,7 +1199,7 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -1136,25 +1208,25 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" t="s">
         <v>51</v>
-      </c>
-      <c r="M17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" t="s">
-        <v>54</v>
       </c>
       <c r="O17">
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q17">
         <v>20000</v>
@@ -1178,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H18">
         <v>110</v>
@@ -1187,25 +1259,25 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O18">
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q18">
         <v>20000</v>
@@ -1229,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H19">
         <v>111</v>
@@ -1238,25 +1310,25 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O19">
         <v>150</v>
       </c>
       <c r="P19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q19">
         <v>20000</v>
@@ -1303,21 +1375,21 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G26" t="s">
         <v>27</v>
       </c>
       <c r="L26" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
@@ -1330,20 +1402,20 @@
       <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.45">
@@ -1357,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1369,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.45">
@@ -1383,10 +1455,10 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1395,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
@@ -1412,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1424,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="L30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.45">
@@ -1438,13 +1510,13 @@
         <v>4</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
@@ -1454,20 +1526,8 @@
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -1475,7 +1535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1492,91 +1552,144 @@
         <v>29</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="J36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>60000</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>28000</v>
-      </c>
-      <c r="I37" s="2">
-        <v>45261</v>
-      </c>
-      <c r="J37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="J44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="K45" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H46">
+        <v>1</v>
+      </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H47">
         <v>2</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I47">
         <v>1</v>
       </c>
@@ -1584,15 +1697,18 @@
         <v>4</v>
       </c>
       <c r="K47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H48">
+        <v>3</v>
+      </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K48">
         <v>1</v>

--- a/벡엔드 심화 테이블.xlsx
+++ b/벡엔드 심화 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_WebFullStack\Work10\Work_BookStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCBA1AF-A9A0-425B-8479-73161FE831FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA736A66-B42D-4D79-9CCA-56F700500FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25540" yWindow="6800" windowWidth="12910" windowHeight="15370" xr2:uid="{F63098B9-2605-4561-9D16-CB6A69851A4E}"/>
+    <workbookView xWindow="25490" yWindow="5510" windowWidth="12910" windowHeight="15370" xr2:uid="{F63098B9-2605-4561-9D16-CB6A69851A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -846,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DF69B8-3700-4D63-A757-253826793486}">
-  <dimension ref="A2:R48"/>
+  <dimension ref="A2:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G22:G23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1449,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -1504,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -1521,196 +1521,228 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36">
         <v>6</v>
       </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
         <v>30</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L43" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
         <v>88</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C44" t="s">
         <v>89</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D44" t="s">
         <v>90</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
         <v>91</v>
       </c>
-      <c r="H37">
+      <c r="H44">
         <v>3</v>
       </c>
-      <c r="I37">
+      <c r="I44">
         <v>60000</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
         <v>34</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C45" t="s">
         <v>35</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D45" t="s">
         <v>92</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A39">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A46">
         <v>4</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B46" t="s">
         <v>84</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C46" t="s">
         <v>85</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D46" t="s">
         <v>93</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40">
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A47">
         <v>3</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B47" t="s">
         <v>86</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C47" t="s">
         <v>87</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D47" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J44" t="s">
+    <row r="51" spans="8:11" x14ac:dyDescent="0.45">
+      <c r="J51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="H45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I45" s="5" t="s">
+    <row r="52" spans="8:11" x14ac:dyDescent="0.45">
+      <c r="H52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J52" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K52" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
+    <row r="53" spans="8:11" x14ac:dyDescent="0.45">
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
         <v>3</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11" x14ac:dyDescent="0.45">
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
         <v>4</v>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="H48">
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="8:11" x14ac:dyDescent="0.45">
+      <c r="H55">
         <v>3</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
         <v>8</v>
       </c>
-      <c r="K48">
+      <c r="K55">
         <v>1</v>
       </c>
     </row>
